--- a/Modern Log Parsing and Enrichment/Webcast Modern Parsing and Enrichment Benchmarks.xlsx
+++ b/Modern Log Parsing and Enrichment/Webcast Modern Parsing and Enrichment Benchmarks.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="45">
   <si>
     <t>Events</t>
   </si>
@@ -150,6 +150,15 @@
   </si>
   <si>
     <t>Had to use memoize to avoid being blocked by registrars for too many lookups</t>
+  </si>
+  <si>
+    <t>Time elapsed calculated by wrapping Logstash with the Linux time command</t>
+  </si>
+  <si>
+    <t>Example:</t>
+  </si>
+  <si>
+    <t>time sudo bin/logstash -w 6 -f /path/to/logstash_config_file.conf</t>
   </si>
 </sst>
 </file>
@@ -511,10 +520,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE6D2355-88FB-47AB-8F5B-B19050D2F388}">
-  <dimension ref="B1:K17"/>
+  <dimension ref="B1:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -972,6 +981,21 @@
         <v>41</v>
       </c>
     </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>44</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
